--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -78,12 +78,6 @@
     <t>https://goo.gl/F2aaWY</t>
   </si>
   <si>
-    <t>5V 2A output battery</t>
-  </si>
-  <si>
-    <t>https://goo.gl/AznWuz</t>
-  </si>
-  <si>
     <t>IR Camera</t>
   </si>
   <si>
@@ -100,6 +94,12 @@
   </si>
   <si>
     <t>COMPONENT</t>
+  </si>
+  <si>
+    <t>7.4V 3500 mAh 35C LiPo battery</t>
+  </si>
+  <si>
+    <t>https://goo.gl/nKJf7g</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,16 +490,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -633,13 +633,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -647,13 +647,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>S.No.</t>
   </si>
@@ -66,12 +66,6 @@
     <t>https://goo.gl/LD6cmX</t>
   </si>
   <si>
-    <t>Bread board with cables</t>
-  </si>
-  <si>
-    <t>https://goo.gl/64hoQJ</t>
-  </si>
-  <si>
     <t>Multimeter</t>
   </si>
   <si>
@@ -96,10 +90,46 @@
     <t>COMPONENT</t>
   </si>
   <si>
-    <t>7.4V 3500 mAh 35C LiPo battery</t>
-  </si>
-  <si>
-    <t>https://goo.gl/nKJf7g</t>
+    <t>Bread board with Power module and jumper cables</t>
+  </si>
+  <si>
+    <t>https://goo.gl/GiHjuM</t>
+  </si>
+  <si>
+    <t>7.4V 1500 mAh 25C LiPo battery for motors</t>
+  </si>
+  <si>
+    <t>https://goo.gl/PEDWJU</t>
+  </si>
+  <si>
+    <t>5v 2.4 A Power bank for Raspberry Pi</t>
+  </si>
+  <si>
+    <t>https://goo.gl/o323cW</t>
+  </si>
+  <si>
+    <t>9V 1A AC-DC Converter for Breadboard</t>
+  </si>
+  <si>
+    <t>https://goo.gl/Jt5Dpn</t>
+  </si>
+  <si>
+    <t>Double sided foam tape</t>
+  </si>
+  <si>
+    <t>https://goo.gl/7ENrhd</t>
+  </si>
+  <si>
+    <t>Anti Static ESD Gloves</t>
+  </si>
+  <si>
+    <t>https://goo.gl/7yG2hZ</t>
+  </si>
+  <si>
+    <t>Raspberry Pi base plate Holder</t>
+  </si>
+  <si>
+    <t>https://goo.gl/eMxNbV</t>
   </si>
 </sst>
 </file>
@@ -472,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,16 +520,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -538,9 +568,9 @@
         <v>5</v>
       </c>
       <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -605,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -619,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -638,7 +668,7 @@
       <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -647,21 +677,95 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{6B8E0675-BF44-451E-9F2F-386E48BB564D}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{FCEE539A-F358-4542-AE5D-07582746D0AB}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{2C4FE278-69D8-44E1-B5B4-9E9B032E1361}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{B250086B-B21A-4DD5-8180-697E969670EB}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{EC16B7BB-42E0-40D1-AA1C-00AFE2BF1BEB}"/>
+    <hyperlink ref="D12" r:id="rId4" xr:uid="{6922ABC6-8D59-4B98-A983-9D382AB9D000}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{13D3452E-D2DC-4571-91E1-4FBF642B1BF2}"/>
+    <hyperlink ref="D15" r:id="rId6" xr:uid="{C947D67E-686F-41F9-96B4-ACBD431E82D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>S.No.</t>
   </si>
@@ -108,12 +108,6 @@
     <t>https://goo.gl/o323cW</t>
   </si>
   <si>
-    <t>9V 1A AC-DC Converter for Breadboard</t>
-  </si>
-  <si>
-    <t>https://goo.gl/Jt5Dpn</t>
-  </si>
-  <si>
     <t>Double sided foam tape</t>
   </si>
   <si>
@@ -130,13 +124,46 @@
   </si>
   <si>
     <t>https://goo.gl/eMxNbV</t>
+  </si>
+  <si>
+    <t>9V 2A AC-DC Converter for Breadboard</t>
+  </si>
+  <si>
+    <t>https://goo.gl/CGQBjC</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Wall Adapter 2.5 A</t>
+  </si>
+  <si>
+    <t>https://goo.gl/kjkVMc</t>
+  </si>
+  <si>
+    <t>7.4V LiPo 2S battery charger</t>
+  </si>
+  <si>
+    <t>https://goo.gl/477mBN</t>
+  </si>
+  <si>
+    <t>Battery JST Plug connectors M/F</t>
+  </si>
+  <si>
+    <t>https://goo.gl/CzQYjy</t>
+  </si>
+  <si>
+    <t>2S battery charger extender cable with connectors</t>
+  </si>
+  <si>
+    <t>https://goo.gl/fH9FLg</t>
+  </si>
+  <si>
+    <t>Total in €</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +189,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -209,7 +244,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -220,6 +255,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -502,17 +538,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="60.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -545,6 +581,9 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E3">
+        <v>24.26</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -559,6 +598,9 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E4">
+        <v>8.09</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -573,6 +615,9 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -587,6 +632,9 @@
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E6">
+        <v>15.96</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -601,6 +649,9 @@
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E7">
+        <v>4.68</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -615,6 +666,9 @@
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -629,6 +683,9 @@
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E9">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -643,6 +700,9 @@
       <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="E10">
+        <v>3.34</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -657,6 +717,9 @@
       <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E11">
+        <v>8.98</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -671,6 +734,9 @@
       <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="E12">
+        <v>6.55</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -685,6 +751,9 @@
       <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E13">
+        <v>10.83</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -699,19 +768,25 @@
       <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>3.03</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -719,53 +794,140 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="E18">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25">
+        <f>SUM(E3:E23)</f>
+        <v>123.21000000000001</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{2C4FE278-69D8-44E1-B5B4-9E9B032E1361}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{B250086B-B21A-4DD5-8180-697E969670EB}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{EC16B7BB-42E0-40D1-AA1C-00AFE2BF1BEB}"/>
-    <hyperlink ref="D12" r:id="rId4" xr:uid="{6922ABC6-8D59-4B98-A983-9D382AB9D000}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{13D3452E-D2DC-4571-91E1-4FBF642B1BF2}"/>
-    <hyperlink ref="D15" r:id="rId6" xr:uid="{C947D67E-686F-41F9-96B4-ACBD431E82D9}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{EBB7B6DF-E80A-46F6-AE12-6736AB56C974}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{20EC7665-6736-4DC6-9150-612A3D07571B}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{575802CC-0551-4732-9934-771898B1936F}"/>
+    <hyperlink ref="D12" r:id="rId4" xr:uid="{CE9C741B-E15F-488A-B327-2C9080A365D3}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{33E6B213-2A2D-4C4A-BC75-9ACE225FF4A0}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{B05042F6-52CB-48E1-9B21-7FA13B428DAD}"/>
+    <hyperlink ref="D21" r:id="rId7" xr:uid="{B1F57240-CD79-47C2-AC65-E6E618297DF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>S.No.</t>
   </si>
@@ -157,6 +157,36 @@
   </si>
   <si>
     <t>Total in €</t>
+  </si>
+  <si>
+    <t>Tester pen</t>
+  </si>
+  <si>
+    <t>https://goo.gl/5yDrWH</t>
+  </si>
+  <si>
+    <t>Insulation Tape</t>
+  </si>
+  <si>
+    <t>https://goo.gl/cpY9hs</t>
+  </si>
+  <si>
+    <t>Male to Male Jumper wire</t>
+  </si>
+  <si>
+    <t>https://goo.gl/HWHSQG</t>
+  </si>
+  <si>
+    <t>Female to Female Jumper Wire</t>
+  </si>
+  <si>
+    <t>https://goo.gl/BZC1iM</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Acrylic case</t>
+  </si>
+  <si>
+    <t>https://goo.gl/W3UzNe</t>
   </si>
 </sst>
 </file>
@@ -538,17 +568,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="60.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -908,24 +939,109 @@
         <v>1.9</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="6" t="s">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E25">
-        <f>SUM(E3:E23)</f>
-        <v>123.21000000000001</v>
+      <c r="E30">
+        <f>SUM(E3:E28)</f>
+        <v>129.74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{EBB7B6DF-E80A-46F6-AE12-6736AB56C974}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{20EC7665-6736-4DC6-9150-612A3D07571B}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{575802CC-0551-4732-9934-771898B1936F}"/>
-    <hyperlink ref="D12" r:id="rId4" xr:uid="{CE9C741B-E15F-488A-B327-2C9080A365D3}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{33E6B213-2A2D-4C4A-BC75-9ACE225FF4A0}"/>
-    <hyperlink ref="D19" r:id="rId6" xr:uid="{B05042F6-52CB-48E1-9B21-7FA13B428DAD}"/>
-    <hyperlink ref="D21" r:id="rId7" xr:uid="{B1F57240-CD79-47C2-AC65-E6E618297DF1}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{BDC52C84-840B-47BC-BFDA-107CA400B1A1}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{E11CA218-3159-4CE1-AB9D-1E5509E87366}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{9C762A2D-8393-411C-9B82-D37377B05647}"/>
+    <hyperlink ref="D12" r:id="rId4" xr:uid="{7B280F77-5F1A-4473-A43D-E6E574E8ADA4}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{9893874C-9AA4-4BD3-B9C0-A23870701BB9}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{8B8D923E-DE15-4C8E-96B1-D254D571AE18}"/>
+    <hyperlink ref="D21" r:id="rId7" xr:uid="{1D34D3D6-E6B3-49B3-B35E-B227AC002659}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>

--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -156,9 +156,6 @@
     <t>https://goo.gl/fH9FLg</t>
   </si>
   <si>
-    <t>Total in €</t>
-  </si>
-  <si>
     <t>Tester pen</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>https://goo.gl/W3UzNe</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 3 model B</t>
   </si>
 </sst>
 </file>
@@ -568,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,9 +612,6 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3">
-        <v>24.26</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -629,42 +626,31 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>8.09</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>15.96</v>
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -672,16 +658,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>4.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -689,16 +672,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -706,16 +686,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>1.98</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -723,16 +700,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>3.34</v>
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -740,16 +714,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>8.98</v>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -757,16 +728,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>6.55</v>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -774,16 +742,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>10.83</v>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,16 +756,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -808,16 +770,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15">
-        <v>3.03</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -825,225 +784,198 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18">
-        <v>5.76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20">
-        <v>5.84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30">
-        <f>SUM(E3:E28)</f>
-        <v>129.74</v>
-      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{BDC52C84-840B-47BC-BFDA-107CA400B1A1}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{E11CA218-3159-4CE1-AB9D-1E5509E87366}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{9C762A2D-8393-411C-9B82-D37377B05647}"/>
-    <hyperlink ref="D12" r:id="rId4" xr:uid="{7B280F77-5F1A-4473-A43D-E6E574E8ADA4}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{9893874C-9AA4-4BD3-B9C0-A23870701BB9}"/>
-    <hyperlink ref="D19" r:id="rId6" xr:uid="{8B8D923E-DE15-4C8E-96B1-D254D571AE18}"/>
-    <hyperlink ref="D21" r:id="rId7" xr:uid="{1D34D3D6-E6B3-49B3-B35E-B227AC002659}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{9C762A2D-8393-411C-9B82-D37377B05647}"/>
+    <hyperlink ref="D13" r:id="rId4" xr:uid="{7B280F77-5F1A-4473-A43D-E6E574E8ADA4}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{9893874C-9AA4-4BD3-B9C0-A23870701BB9}"/>
+    <hyperlink ref="D20" r:id="rId6" xr:uid="{8B8D923E-DE15-4C8E-96B1-D254D571AE18}"/>
+    <hyperlink ref="D22" r:id="rId7" xr:uid="{1D34D3D6-E6B3-49B3-B35E-B227AC002659}"/>
+    <hyperlink ref="D19" r:id="rId8" xr:uid="{C97E6531-3307-4CFB-9D8C-F90C59CCAC0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>